--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>2531.369149631726</v>
+        <v>5466.549215551788</v>
       </c>
       <c r="R2">
-        <v>22782.32234668553</v>
+        <v>49198.94293996609</v>
       </c>
       <c r="S2">
-        <v>0.1020169448258176</v>
+        <v>0.1707677080027366</v>
       </c>
       <c r="T2">
-        <v>0.1020169448258176</v>
+        <v>0.1707677080027367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>3278.469445527022</v>
+        <v>4816.345088789334</v>
       </c>
       <c r="R3">
-        <v>29506.2250097432</v>
+        <v>43347.10579910401</v>
       </c>
       <c r="S3">
-        <v>0.1321259037174082</v>
+        <v>0.1504561981117684</v>
       </c>
       <c r="T3">
-        <v>0.1321259037174083</v>
+        <v>0.1504561981117684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>932.0538125414085</v>
+        <v>1519.693886973357</v>
       </c>
       <c r="R4">
-        <v>8388.484312872677</v>
+        <v>13677.24498276021</v>
       </c>
       <c r="S4">
-        <v>0.0375627878622773</v>
+        <v>0.0474732105595824</v>
       </c>
       <c r="T4">
-        <v>0.03756278786227731</v>
+        <v>0.04747321055958241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H5">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I5">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J5">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>2056.421917725927</v>
+        <v>2020.427252933956</v>
       </c>
       <c r="R5">
-        <v>18507.79725953334</v>
+        <v>18183.8452764056</v>
       </c>
       <c r="S5">
-        <v>0.08287605201705528</v>
+        <v>0.06311545319819659</v>
       </c>
       <c r="T5">
-        <v>0.08287605201705531</v>
+        <v>0.06311545319819659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>3841.732645063096</v>
+        <v>5647.268823265553</v>
       </c>
       <c r="R6">
-        <v>34575.59380556786</v>
+        <v>50825.41940938996</v>
       </c>
       <c r="S6">
-        <v>0.1548260265966987</v>
+        <v>0.1764131475631519</v>
       </c>
       <c r="T6">
-        <v>0.1548260265966987</v>
+        <v>0.1764131475631519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>4975.569484425233</v>
+        <v>4975.569484425232</v>
       </c>
       <c r="R7">
         <v>44780.12535982709</v>
       </c>
       <c r="S7">
-        <v>0.2005208910930582</v>
+        <v>0.1554301559101376</v>
       </c>
       <c r="T7">
-        <v>0.2005208910930583</v>
+        <v>0.1554301559101376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J8">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>1414.531562540684</v>
+        <v>1569.93371328234</v>
       </c>
       <c r="R8">
-        <v>12730.78406286616</v>
+        <v>14129.40341954106</v>
       </c>
       <c r="S8">
-        <v>0.05700716878495764</v>
+        <v>0.04904263574006616</v>
       </c>
       <c r="T8">
-        <v>0.05700716878495766</v>
+        <v>0.04904263574006616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J9">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>3120.928930693616</v>
+        <v>2087.220911267016</v>
       </c>
       <c r="R9">
-        <v>28088.36037624254</v>
+        <v>18784.98820140314</v>
       </c>
       <c r="S9">
-        <v>0.1257768486963621</v>
+        <v>0.0652019980170386</v>
       </c>
       <c r="T9">
-        <v>0.1257768486963622</v>
+        <v>0.0652019980170386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>754.608291204183</v>
+        <v>1538.161071421677</v>
       </c>
       <c r="R10">
-        <v>6791.474620837647</v>
+        <v>13843.44964279509</v>
       </c>
       <c r="S10">
-        <v>0.03041153931266067</v>
+        <v>0.04805010077627189</v>
       </c>
       <c r="T10">
-        <v>0.03041153931266067</v>
+        <v>0.04805010077627189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H11">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I11">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J11">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>977.3209989598686</v>
+        <v>1355.208602354264</v>
       </c>
       <c r="R11">
-        <v>8795.888990638818</v>
+        <v>12196.87742118837</v>
       </c>
       <c r="S11">
-        <v>0.03938710497538736</v>
+        <v>0.04233490960462702</v>
       </c>
       <c r="T11">
-        <v>0.03938710497538738</v>
+        <v>0.04233490960462702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H12">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I12">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J12">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>277.8478733117769</v>
+        <v>427.6068659127517</v>
       </c>
       <c r="R12">
-        <v>2500.630859805992</v>
+        <v>3848.461793214765</v>
       </c>
       <c r="S12">
-        <v>0.01119757312588805</v>
+        <v>0.0133578682892702</v>
       </c>
       <c r="T12">
-        <v>0.01119757312588805</v>
+        <v>0.01335786828927021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H13">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I13">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J13">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>613.0251802886008</v>
+        <v>568.501704742954</v>
       </c>
       <c r="R13">
-        <v>5517.226622597408</v>
+        <v>5116.515342686585</v>
       </c>
       <c r="S13">
-        <v>0.02470558511919824</v>
+        <v>0.01775923517498295</v>
       </c>
       <c r="T13">
-        <v>0.02470558511919825</v>
+        <v>0.01775923517498295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H14">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>11.31945872617778</v>
+        <v>7.562544994906667</v>
       </c>
       <c r="R14">
-        <v>101.8751285356</v>
+        <v>68.06290495416</v>
       </c>
       <c r="S14">
-        <v>0.0004561865646875721</v>
+        <v>0.0002362438211977979</v>
       </c>
       <c r="T14">
-        <v>0.0004561865646875721</v>
+        <v>0.000236243821197798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H15">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>14.66024802391111</v>
+        <v>6.663038236506667</v>
       </c>
       <c r="R15">
-        <v>131.9422322152</v>
+        <v>59.96734412855999</v>
       </c>
       <c r="S15">
-        <v>0.0005908240265967238</v>
+        <v>0.0002081444295325873</v>
       </c>
       <c r="T15">
-        <v>0.0005908240265967241</v>
+        <v>0.0002081444295325873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H16">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>4.167841210822222</v>
+        <v>2.1023781083</v>
       </c>
       <c r="R16">
-        <v>37.5105708974</v>
+        <v>18.9214029747</v>
       </c>
       <c r="S16">
-        <v>0.0001679685584021113</v>
+        <v>6.5675488640649E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001679685584021113</v>
+        <v>6.567548864064903E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H17">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>9.195649328622222</v>
+        <v>2.79510371292</v>
       </c>
       <c r="R17">
-        <v>82.7608439576</v>
+        <v>25.15593341628</v>
       </c>
       <c r="S17">
-        <v>0.0003705947235440157</v>
+        <v>8.73153127986808E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003705947235440158</v>
+        <v>8.731531279868081E-05</v>
       </c>
     </row>
   </sheetData>
